--- a/public/data/profit/profit_table_togo.xlsx
+++ b/public/data/profit/profit_table_togo.xlsx
@@ -1275,31 +1275,31 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.93</v>
+        <v>58.37</v>
       </c>
       <c r="G2" t="n">
-        <v>-88.56</v>
+        <v>-14.67</v>
       </c>
       <c r="H2" t="n">
-        <v>166.91</v>
+        <v>194.77</v>
       </c>
       <c r="I2" t="n">
-        <v>-95.09</v>
+        <v>-36.62</v>
       </c>
       <c r="J2" t="n">
-        <v>-153.18</v>
+        <v>-87.09</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-97.82</v>
+        <v>-135.27</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-193.62</v>
+        <v>-141.68</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-190.17</v>
+        <v>-150.56</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-240.2</v>
+        <v>-195.05</v>
       </c>
       <c r="U2" t="n">
-        <v>-155.27</v>
+        <v>-114.6</v>
       </c>
       <c r="V2" t="n">
-        <v>-80.96</v>
+        <v>-35.01</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-92.6</v>
+        <v>3.52</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -1355,31 +1355,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-79.74</v>
+        <v>-67.29</v>
       </c>
       <c r="G3" t="n">
-        <v>-67.75</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-23.61</v>
+        <v>12.86</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-113.74</v>
+        <v>-76.64</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-144.45</v>
+        <v>-147.38</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-125.74</v>
+        <v>-124.63</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-124.55</v>
+        <v>-97.28</v>
       </c>
       <c r="S3" t="n">
-        <v>-20.46</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-139.47</v>
+        <v>-148.55</v>
       </c>
       <c r="U3" t="n">
-        <v>-112.14</v>
+        <v>-98.05</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-48.56</v>
+        <v>54.05</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -1435,31 +1435,31 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-82.83</v>
+        <v>-71.1</v>
       </c>
       <c r="G4" t="n">
-        <v>-71.72</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-26.31</v>
+        <v>8.09</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-89.01</v>
+        <v>-73.85</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-138.53</v>
+        <v>-148.36</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-117.78</v>
+        <v>-98.49</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1471,16 +1471,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-97.25</v>
+        <v>-97.56</v>
       </c>
       <c r="S4" t="n">
-        <v>-17.63</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-131.21</v>
+        <v>-119.47</v>
       </c>
       <c r="U4" t="n">
-        <v>-102.71</v>
+        <v>-80.67</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-45.33</v>
+        <v>72.31</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -1515,31 +1515,31 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-17.56</v>
+        <v>5.41</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.83</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-20.36</v>
+        <v>-4.7</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-22.55</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-18.5</v>
+        <v>11.98</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-20.63</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1551,28 +1551,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-26.55</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-34.71</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-20.02</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>-17.14</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-22.63</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1595,31 +1595,31 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-70.21</v>
+        <v>-77.79</v>
       </c>
       <c r="G6" t="n">
-        <v>-42.68</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-15.45</v>
+        <v>21.37</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-78.15</v>
+        <v>-49.27</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-101.21</v>
+        <v>-128.83</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-93.9</v>
+        <v>-102.82</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1631,28 +1631,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-89.22</v>
+        <v>-72.1</v>
       </c>
       <c r="S6" t="n">
-        <v>-190.1</v>
+        <v>-149.76</v>
       </c>
       <c r="T6" t="n">
-        <v>-105.77</v>
+        <v>-125.15</v>
       </c>
       <c r="U6" t="n">
-        <v>-90.15</v>
+        <v>-89.28</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-11.52</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-57.37</v>
+        <v>76.44</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -2075,13 +2075,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.28</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.24</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2235,31 +2235,31 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-116.79</v>
+        <v>-73.98</v>
       </c>
       <c r="G14" t="n">
-        <v>-29.03</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-79.17</v>
+        <v>-27.85</v>
       </c>
       <c r="I14" t="n">
-        <v>-30.47</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-87.75</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-108.24</v>
+        <v>-63.5</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-98.58</v>
+        <v>-80.23</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2271,28 +2271,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-87.77</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-96.93</v>
+        <v>-76.59</v>
       </c>
       <c r="U14" t="n">
-        <v>-101.89</v>
+        <v>-87.78</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-15.28</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-61.23</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -2315,31 +2315,31 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>671.61</v>
+        <v>267.84</v>
       </c>
       <c r="G15" t="n">
-        <v>-97.63</v>
+        <v>17.19</v>
       </c>
       <c r="H15" t="n">
-        <v>1104.3</v>
+        <v>548.57</v>
       </c>
       <c r="I15" t="n">
-        <v>-122.05</v>
+        <v>-23.91</v>
       </c>
       <c r="J15" t="n">
-        <v>-237.71</v>
+        <v>-191.16</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>697.45</v>
+        <v>288.46</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-116.26</v>
+        <v>-64.26</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2351,16 +2351,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-250.62</v>
+        <v>-204.89</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-130.66</v>
+        <v>-79.95</v>
       </c>
       <c r="U15" t="n">
-        <v>166.46</v>
+        <v>50.37</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>-16.16</v>
+        <v>94.12</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -2395,31 +2395,31 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>122.59</v>
+        <v>-2.26</v>
       </c>
       <c r="G16" t="n">
-        <v>-108.59</v>
+        <v>-31.99</v>
       </c>
       <c r="H16" t="n">
-        <v>487.99</v>
+        <v>274.27</v>
       </c>
       <c r="I16" t="n">
-        <v>-127.26</v>
+        <v>-65.58</v>
       </c>
       <c r="J16" t="n">
-        <v>-218.98</v>
+        <v>-208.66</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>146.99</v>
+        <v>19.2</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-178.49</v>
+        <v>-159.89</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2431,16 +2431,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-220.37</v>
+        <v>-210.79</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-189.21</v>
+        <v>-175.36</v>
       </c>
       <c r="U16" t="n">
-        <v>-93.19</v>
+        <v>-108.89</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-90.79</v>
+        <v>-9.36</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -2475,31 +2475,31 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-21.08</v>
+        <v>-58.56</v>
       </c>
       <c r="G17" t="n">
-        <v>-109.32</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-10.46</v>
+        <v>-0.14</v>
       </c>
       <c r="I17" t="n">
-        <v>-127.05</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-125.9</v>
+        <v>-152.93</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-19.79</v>
+        <v>-52.24</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-37.35</v>
+        <v>-183.31</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2511,16 +2511,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-127.06</v>
+        <v>-155.17</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-36.35</v>
+        <v>-174.97</v>
       </c>
       <c r="U17" t="n">
-        <v>-39.54</v>
+        <v>-198.65</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-88.97</v>
+        <v>-80.36</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -2555,31 +2555,31 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-127.96</v>
+        <v>-108.63</v>
       </c>
       <c r="G18" t="n">
-        <v>-62.72</v>
+        <v>-44.43</v>
       </c>
       <c r="H18" t="n">
-        <v>194.04</v>
+        <v>190.62</v>
       </c>
       <c r="I18" t="n">
-        <v>-81.2</v>
+        <v>-69.05</v>
       </c>
       <c r="J18" t="n">
-        <v>-187.14</v>
+        <v>-170.91</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-117.42</v>
+        <v>-98.03</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-216.2</v>
+        <v>-124.85</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2591,19 +2591,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-191.21</v>
+        <v>-178.67</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-241.93</v>
+        <v>-151.45</v>
       </c>
       <c r="U18" t="n">
-        <v>-233.34</v>
+        <v>-145.19</v>
       </c>
       <c r="V18" t="n">
-        <v>-54.1</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>-132.13</v>
+        <v>-74.41</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -2635,13 +2635,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-12.17</v>
+        <v>-10.15</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-10.19</v>
+        <v>-4.31</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-12.95</v>
+        <v>-15.27</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-8.15</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2677,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-8.17</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-8.37</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2715,31 +2715,31 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-37.46</v>
+        <v>-35.62</v>
       </c>
       <c r="G20" t="n">
-        <v>-113.53</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.11</v>
+        <v>42.26</v>
       </c>
       <c r="I20" t="n">
-        <v>-128.88</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-137.66</v>
+        <v>-170.55</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-24.38</v>
+        <v>-8.23</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-94.01</v>
+        <v>-172.3</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2751,28 +2751,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-138.2</v>
+        <v>-172.07</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-86.72</v>
+        <v>-148.73</v>
       </c>
       <c r="U20" t="n">
-        <v>-95.4</v>
+        <v>-170.31</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-15.28</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-91.74</v>
+        <v>-67.08</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2795,31 +2795,31 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-155.93</v>
+        <v>-103.91</v>
       </c>
       <c r="G21" t="n">
-        <v>-22.79</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-44.86</v>
+        <v>6.37</v>
       </c>
       <c r="I21" t="n">
-        <v>-24.11</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-89.15</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-147.07</v>
+        <v>-95.09</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-155.41</v>
+        <v>-78.04</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2831,19 +2831,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-89.41</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-157.91</v>
+        <v>-81.9</v>
       </c>
       <c r="U21" t="n">
-        <v>-162.58</v>
+        <v>-86.92</v>
       </c>
       <c r="V21" t="n">
-        <v>-28.12</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>-67.97</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2875,31 +2875,31 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-92.29</v>
+        <v>-68.96</v>
       </c>
       <c r="G22" t="n">
-        <v>-83.79</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>106.66</v>
+        <v>116.97</v>
       </c>
       <c r="I22" t="n">
-        <v>-91.32</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-179.5</v>
+        <v>-154.71</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-36.38</v>
+        <v>-16.81</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-211.42</v>
+        <v>-139.96</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-179.97</v>
+        <v>-155.6</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-199.62</v>
+        <v>-126.7</v>
       </c>
       <c r="U22" t="n">
-        <v>-206.83</v>
+        <v>-139.18</v>
       </c>
       <c r="V22" t="n">
-        <v>-30.06</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-102.63</v>
+        <v>-22.72</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -3035,31 +3035,31 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-37.08</v>
+        <v>-81.94</v>
       </c>
       <c r="G24" t="n">
-        <v>-65.27</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-19.79</v>
+        <v>-21.05</v>
       </c>
       <c r="I24" t="n">
-        <v>-75.55</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>-80.13</v>
+        <v>-152.93</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.57</v>
+        <v>-73.2</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-69.37</v>
+        <v>-126.44</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3071,16 +3071,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-80.56</v>
+        <v>-155.17</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>-67.78</v>
+        <v>-121.7</v>
       </c>
       <c r="U24" t="n">
-        <v>-73.38</v>
+        <v>-137.38</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>-61.42</v>
+        <v>-80.36</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -3115,31 +3115,31 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>208.84</v>
+        <v>51.68</v>
       </c>
       <c r="G25" t="n">
-        <v>-96.4</v>
+        <v>-12.15</v>
       </c>
       <c r="H25" t="n">
-        <v>729.37</v>
+        <v>465.89</v>
       </c>
       <c r="I25" t="n">
-        <v>-115.83</v>
+        <v>-53.14</v>
       </c>
       <c r="J25" t="n">
-        <v>-260.98</v>
+        <v>-157.41</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>232.87</v>
+        <v>68.66</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-205.48</v>
+        <v>-128.1</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3151,19 +3151,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-263.33</v>
+        <v>-159.74</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-217.61</v>
+        <v>-140.24</v>
       </c>
       <c r="U25" t="n">
-        <v>-107.58</v>
+        <v>-84.55</v>
       </c>
       <c r="V25" t="n">
-        <v>-66.31</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-120.38</v>
+        <v>-9.68</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -3195,31 +3195,31 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-127.01</v>
+        <v>-132.03</v>
       </c>
       <c r="G26" t="n">
-        <v>-37.03</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-31.06</v>
+        <v>-1.79</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-70.66</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-104.63</v>
+        <v>-101.83</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-126.88</v>
+        <v>-108.46</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-78.36</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-146.87</v>
+        <v>-139.71</v>
       </c>
       <c r="T26" t="n">
-        <v>-135.98</v>
+        <v>-123.27</v>
       </c>
       <c r="U26" t="n">
-        <v>-126.03</v>
+        <v>-106.98</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-66.06</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -3275,52 +3275,52 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-96.47</v>
+        <v>-88.65</v>
       </c>
       <c r="G27" t="n">
-        <v>-33.47</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-41</v>
+        <v>-13.87</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>-54.5</v>
+        <v>-47.45</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-82.31</v>
+        <v>-71.09</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-67.81</v>
+        <v>-102.94</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-29.94</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>-69.14</v>
+        <v>-65.58</v>
       </c>
       <c r="S27" t="n">
-        <v>-76.11</v>
+        <v>-128.4</v>
       </c>
       <c r="T27" t="n">
-        <v>-72.44</v>
+        <v>-118.22</v>
       </c>
       <c r="U27" t="n">
-        <v>-60.96</v>
+        <v>-73.91</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>-42.4</v>
+        <v>1.68</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -3355,13 +3355,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-12.9</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-11.01</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3373,13 +3373,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-11.12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-6.57</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-6.82</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-6.69</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-6.52</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-13.81</v>
+        <v>-39.04</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-11.29</v>
+        <v>-19.35</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3453,13 +3453,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-12.36</v>
+        <v>-27.16</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-13.82</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-14.49</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-13.8</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-13.82</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3515,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-33.13</v>
+        <v>-72.24</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-24.43</v>
+        <v>-33.49</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3533,13 +3533,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-29.03</v>
+        <v>-56.97</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-19.54</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>-20.18</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>-19.84</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>-19.51</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3595,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-28.18</v>
+        <v>-33.09</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-22.85</v>
+        <v>-15.94</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3613,13 +3613,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-25.43</v>
+        <v>-26.35</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-23.65</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3634,19 +3634,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-23.94</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-24.13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-22.65</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-20.1</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3675,31 +3675,31 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-49.03</v>
+        <v>-82.41</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-30.5</v>
+        <v>-35.47</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-13.76</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-40.39</v>
+        <v>-62.05</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-27.97</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-15.28</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-29.49</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-28.69</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-27.48</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-13.57</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -3835,13 +3835,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-47.81</v>
+        <v>-23.37</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-44.25</v>
+        <v>-15.3</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-47.09</v>
+        <v>-21.73</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-58.79</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-57.61</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-54.26</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3995,13 +3995,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-230.95</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-220.71</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-230.38</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -4075,13 +4075,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-70.92</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-68.67</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-63.91</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -4155,13 +4155,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-121.38</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-119.55</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-121.08</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -4235,13 +4235,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>-31.33</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-29.84</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-31.03</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -4315,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-38.12</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-36.57</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-36.79</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4395,13 +4395,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-51.26</v>
+        <v>-34.79</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-46.46</v>
+        <v>-22.34</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -4413,13 +4413,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-49.97</v>
+        <v>-31.21</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-16.01</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -4437,16 +4437,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-15.99</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-16.01</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-15.28</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
